--- a/medicine/Enfance/Yoshihiko_Funazaki/Yoshihiko_Funazaki.xlsx
+++ b/medicine/Enfance/Yoshihiko_Funazaki/Yoshihiko_Funazaki.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Yoshihiko Funazaki (舟崎 克彦, Funazaki Yoshihiko?), né le 2 février 1945 et décédé le 15 octobre 2015 est un romancier japonais, poète, illustrateur, mangaka, auteur-compositeur et professeur assistant au collège Shirayuri. Il est l'auteur de plus de 300 livres.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Funazaki naît dans une famille aisée de Tokyo. Après l'obtention de son diplôme de l'université Gakushūin en 1968, il travaillée comme auteur-compositeur, scénariste et illustrateur tout en étant employé dans une société immobilière. En 1969, alors qu'il est en congé, lui et son épouse Yasuko Funazaki, commencent à écrire une histoire absurde, Tonkachi to Hanashōgun (トンカチと花将軍, « Le Marteau et le fleuri général »?). En 1971, il démissionne et fait ses débuts en tant que romancier.
 En 1973, il écrit Poppen Sensei no Nichiyōbi (ぽっぺん先生の日曜日, « le Dimanche du professeur Poppen »?). l'année suivante, le deuxième roman de cette série, Poppen Sensei to Kaerazu no Numa (ぽっぺん先生と帰らずの沼, « Professeur Poppen et le marais de non-retour »?) remporte le Akaitori Bungaku Shō (赤い鳥文学賞, prix de l'Oiseau rouge?).
@@ -547,9 +561,11 @@
           <t>Enquête sur Détective Conan</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Vers 1996, Funazaki est informé par un lecteur que Case Closed, aussi connu sous le nom Detective Conan, comporte des similitudes avec Picasso-kun no tantei note. (Les similitudes décrites sont courantes dans le manga. Par exemple, le motif d'un petit détective qui porte costume et nœud papillon a également été utilisé par Osamu Tezuka, Mitsuteru Yokoyama et Fujiko Fujio). Funazaki vérifie Case Closed et « constate de fortes ressemblances ». Funazaki considère « ces points de ressemblance comme de possibles coïncidence » aussi contacte-t-il l'éditeur Shōgakukan. On lui dit que « Le créateur (Gōshō Aoyama) peut ne pas avoir lu Picasso-kun no tantei note. Mais je ne peux pas nier la possibilité que l'un des membres de son équipe ait été amusé par les Picasso-kun no tantei note et en ait suggéré l'idée ». Funazaki ne lit pas les autres volumes de la série Case Closed sauf le volume 1, car il estime qu'« il est absurde qu'il verse des redevances des livres de Détective Conan à Gosho Aoyama ». Plus tard, celui-ci s'exprime à propos de cette enquête dans le magazine trimestriel Parolu, où il déclare, « Il n'y a pas de responsabilité (責任の所在がない) », « Je suis dans une mauvaise passe (グレてやる) »[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vers 1996, Funazaki est informé par un lecteur que Case Closed, aussi connu sous le nom Detective Conan, comporte des similitudes avec Picasso-kun no tantei note. (Les similitudes décrites sont courantes dans le manga. Par exemple, le motif d'un petit détective qui porte costume et nœud papillon a également été utilisé par Osamu Tezuka, Mitsuteru Yokoyama et Fujiko Fujio). Funazaki vérifie Case Closed et « constate de fortes ressemblances ». Funazaki considère « ces points de ressemblance comme de possibles coïncidence » aussi contacte-t-il l'éditeur Shōgakukan. On lui dit que « Le créateur (Gōshō Aoyama) peut ne pas avoir lu Picasso-kun no tantei note. Mais je ne peux pas nier la possibilité que l'un des membres de son équipe ait été amusé par les Picasso-kun no tantei note et en ait suggéré l'idée ». Funazaki ne lit pas les autres volumes de la série Case Closed sauf le volume 1, car il estime qu'« il est absurde qu'il verse des redevances des livres de Détective Conan à Gosho Aoyama ». Plus tard, celui-ci s'exprime à propos de cette enquête dans le magazine trimestriel Parolu, où il déclare, « Il n'y a pas de responsabilité (責任の所在がない) », « Je suis dans une mauvaise passe (グレてやる) ».
 Funazaki est offensé par la réponse, et il publie le troisième livre comme une protestation contre Aoyama.
 </t>
         </is>
